--- a/notebooks/Data/3Nodes/edges.xlsx
+++ b/notebooks/Data/3Nodes/edges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfuentes/ASL/ICU/notebooks/Data/3Nodes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7197CFFB-A6D1-7748-94F8-46DB43787746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5834737-0C29-9E41-8D89-AC9F35A20AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>head</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>isnegative</t>
+  </si>
+  <si>
+    <t>shift</t>
   </si>
 </sst>
 </file>
@@ -888,15 +891,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,8 +918,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -935,8 +941,11 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -955,8 +964,11 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -975,8 +987,11 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -995,8 +1010,11 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1015,8 +1033,11 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1033,6 +1054,9 @@
         <v>10</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
